--- a/regression/Plots_SS1_2022-06-10/Regression_parameters.xlsx
+++ b/regression/Plots_SS1_2022-06-10/Regression_parameters.xlsx
@@ -34125,61 +34125,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR15" t="n">
-        <v>17.55690526319401</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH15" t="n">
-        <v>1.717277693605068</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -34300,61 +34245,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR16" t="n">
-        <v>325.654181379212</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>-302.0561526172374</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB16" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH16" t="n">
-        <v>1.717277693605076</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -34475,61 +34365,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR17" t="n">
-        <v>17.55690526315789</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>54.80263053663133</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>-48.1627533275657</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH17" t="n">
-        <v>1.717277693605068</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -34650,61 +34485,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR18" t="n">
-        <v>20.53123162281554</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>-125.1607230927726</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB18" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH18" t="n">
-        <v>1.451355051319856</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -34825,61 +34605,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR19" t="n">
-        <v>-195.8721645148585</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>212.1601903433406</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>4804.559861258528</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>-4833.059394785408</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH19" t="n">
-        <v>1.451355051320005</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -35000,61 +34725,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR20" t="n">
-        <v>5.700262060752572</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>2.234920679951431</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>1.855403732788419</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>-15.13450668462741</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>-8.777686992430965</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>2.478982604296462</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC20" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH20" t="n">
-        <v>1.451355052837064</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35175,61 +34845,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR21" t="n">
-        <v>-26467.45886431876</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>26487.99010942906</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>-0.00472566850846182</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB21" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC21" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH21" t="n">
-        <v>1.451363973078541</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -35350,61 +34965,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR22" t="n">
-        <v>-7236.556989459549</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>-7094.643215397406</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>6902.336940371777</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7442.43860184613</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>2.537520315115315</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>-2.496232828105481</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>CSR</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH22" t="n">
-        <v>1.451371358717878</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -35525,61 +35085,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR23" t="n">
-        <v>17.55690526319401</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB23" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH23" t="n">
-        <v>1.717277693605068</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -35700,61 +35205,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR24" t="n">
-        <v>6.613516009416632</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>3.465273751974443</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB24" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC24" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH24" t="n">
-        <v>1.436828967417795</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -35875,61 +35325,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR25" t="n">
-        <v>20.53123162281554</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>-125.1607230927726</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB25" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC25" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH25" t="n">
-        <v>1.451355051319856</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -36050,61 +35445,6 @@
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR26" t="n">
-        <v>8.477891066764331</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>4.443550556075639</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>-812.8480691495395</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>177.9223713840533</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB26" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC26" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH26" t="n">
-        <v>0.8268591464977986</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -36224,61 +35564,6 @@
         <is>
           <t>A_FC1.4_OCR1_DR83</t>
         </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Pu</t>
-        </is>
-      </c>
-      <c r="AR27" t="n">
-        <v>-26467.45886431876</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>26487.99010942906</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>-0.00472566850846182</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB27" t="inlineStr">
-        <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="BC27" t="inlineStr">
-        <is>
-          <t>z_L</t>
-        </is>
-      </c>
-      <c r="BE27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BH27" t="n">
-        <v>1.451363973078541</v>
       </c>
     </row>
     <row r="28">
